--- a/data/CovidStatus.xlsx
+++ b/data/CovidStatus.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>23815</t>
+          <t>15130</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>100753</t>
+          <t>115883</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -511,17 +511,17 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>789</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>9547</t>
+          <t>7086</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>56300</t>
+          <t>58339</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>330599</t>
+          <t>330670</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -575,88 +575,88 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>2155</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40175</t>
+          <t>7054</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>40211</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7004</t>
+          <t>2049</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -673,17 +673,17 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2702</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -705,39 +705,39 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2936</t>
+          <t>2943</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -759,24 +759,24 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>2906</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -786,44 +786,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2203</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1362</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -845,34 +845,34 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2195</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -894,39 +894,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1385</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2900</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2117</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -975,39 +975,39 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>698</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>68398</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>68398</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1046,7 +1046,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1137,24 +1137,24 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">

--- a/data/CovidStatus.xlsx
+++ b/data/CovidStatus.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>15130</t>
+          <t>45100</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>115883</t>
+          <t>2937363</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -506,103 +506,103 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>7086</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>58339</t>
+          <t>333652</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>330670</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7054</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -614,34 +614,34 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40211</t>
+          <t>7343</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -668,76 +668,76 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2717</t>
+          <t>63114</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -749,49 +749,49 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2906</t>
+          <t>718</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>68399</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -803,49 +803,49 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2203</t>
+          <t>40293</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -857,39 +857,39 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>3142</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -899,34 +899,34 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>2738</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -938,22 +938,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -965,12 +965,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>68398</t>
+          <t>2157</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1046,7 +1046,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1061,19 +1061,19 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2119</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1083,24 +1083,24 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1803</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1137,24 +1137,24 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1218,12 +1218,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>423</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>185</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>青海</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>青海</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
